--- a/biology/Botanique/InVivo/InVivo.xlsx
+++ b/biology/Botanique/InVivo/InVivo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 InVivo est une union de coopératives agricoles qui rassemble 185 coopératives adhérentes, autour de quatre pôles d’activités stratégiques — Négoce international de grains ; Agriculture ; Agroalimentaire (malterie, pôle blé, vin) ; Jardinerie et distribution alimentaire. — Un pôle global transverse de solutions innovantes et digitales complète ce dispositif.
@@ -512,17 +524,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce groupe est le résultat de la fusion en 2001 de deux unions de coopératives agricoles françaises SIGMA et UNCAA (Union Nationale des Coopératives Agricoles d’Approvisionnement).
-InVivo ouvre son premier supermarché à l'enseigne Frais d'ici le 31 octobre 2014 à Portet-sur-Garonne, près de Toulouse, sur une surface de 500 m2. Le magasin[3] vend principalement des produits locaux et frais issus du secteur agricole et des coopératives partenaires du groupe. Un second point de vente à proximité de Dijon est ouvert depuis octobre 2015.
-En 2015, InVivo effectue plusieurs acquisitions successives dans le but de constituer un pôle voué à la viticulture avec l'acquisition du négociant bordelais Cordier Mestrezat, puis du négociant languedocien Vignobles du soleil. Dans le même temps, InVivo signe un partenariat avec Vinadeis, issu de la fusion de Val d’Orbieu et de La Languedocienne, deux coopératives viticoles[4].
-En mai 2017, InVivo acquiert 90 Gamm Vert à deux de ses franchisés, Axéréal et Terrena[5].
-En novembre 2017, InVivo annonce l'acquisition de Jardiland, pour un montant non dévoilé[6].
-En juillet 2018, ADM annonce l'acquisition de Neovia, une filiale d'Invivo spécialisée dans la nutrition animale, pour 1,8 milliard de dollars[7]. En juin 2019, Invivo acquiert 29 magasins Gamm Vert à son franchisé Maïsadour, sur les 36 qu'il possède, les 7 autres sont vendus à une autre entreprise[8].
-InVivo Retail atteint les 2 milliards d’euros en 2018-2019 avec ses enseignes Gamm Vert, Jardiland et Delbard &amp; associés[9].
-En juillet 2020, InVivo est en négociation pour acquérir une participation de 57 % dans Vinadeis, coopérative spécialisée dans la viticulture, dont il détenait déjà une participation de 10 %[10]. 
-En janvier 2021, InVivo annonce être entré en négociation pour acquérir le Groupe Soufflet[11],[12]. Une telle opération fait du groupement de coopératives le second au niveau européen avec un chiffre d'affaires cumulé d'environ 10 milliards d'euros, derrière les 16 milliards de l'allemand BayWa[13]. L'acquisition du groupe Soufflet est réalisée en décembre 2021, pour un montant non dévoilé, mais estimé à 2,3 milliards d'euros[14],[15].
+InVivo ouvre son premier supermarché à l'enseigne Frais d'ici le 31 octobre 2014 à Portet-sur-Garonne, près de Toulouse, sur une surface de 500 m2. Le magasin vend principalement des produits locaux et frais issus du secteur agricole et des coopératives partenaires du groupe. Un second point de vente à proximité de Dijon est ouvert depuis octobre 2015.
+En 2015, InVivo effectue plusieurs acquisitions successives dans le but de constituer un pôle voué à la viticulture avec l'acquisition du négociant bordelais Cordier Mestrezat, puis du négociant languedocien Vignobles du soleil. Dans le même temps, InVivo signe un partenariat avec Vinadeis, issu de la fusion de Val d’Orbieu et de La Languedocienne, deux coopératives viticoles.
+En mai 2017, InVivo acquiert 90 Gamm Vert à deux de ses franchisés, Axéréal et Terrena.
+En novembre 2017, InVivo annonce l'acquisition de Jardiland, pour un montant non dévoilé.
+En juillet 2018, ADM annonce l'acquisition de Neovia, une filiale d'Invivo spécialisée dans la nutrition animale, pour 1,8 milliard de dollars. En juin 2019, Invivo acquiert 29 magasins Gamm Vert à son franchisé Maïsadour, sur les 36 qu'il possède, les 7 autres sont vendus à une autre entreprise.
+InVivo Retail atteint les 2 milliards d’euros en 2018-2019 avec ses enseignes Gamm Vert, Jardiland et Delbard &amp; associés.
+En juillet 2020, InVivo est en négociation pour acquérir une participation de 57 % dans Vinadeis, coopérative spécialisée dans la viticulture, dont il détenait déjà une participation de 10 %. 
+En janvier 2021, InVivo annonce être entré en négociation pour acquérir le Groupe Soufflet,. Une telle opération fait du groupement de coopératives le second au niveau européen avec un chiffre d'affaires cumulé d'environ 10 milliards d'euros, derrière les 16 milliards de l'allemand BayWa. L'acquisition du groupe Soufflet est réalisée en décembre 2021, pour un montant non dévoilé, mais estimé à 2,3 milliards d'euros,.
 </t>
         </is>
       </c>
@@ -551,11 +565,13 @@
           <t>Organisation du groupe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe est organisé en quatre pôles d'activités : Agriculture (Bioline by InVivo et Soufflet Agriculture), Négoce international de grains (Soufflet Négoce by InVivo), Agroalimentaire (Episens, Malteries Soufflet et Cordier by InVivo), TERACT (jardinerie et distribution alimentaire) et une entité transverse destinée à l’innovation - InVivo Digital Factory[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe est organisé en quatre pôles d'activités : Agriculture (Bioline by InVivo et Soufflet Agriculture), Négoce international de grains (Soufflet Négoce by InVivo), Agroalimentaire (Episens, Malteries Soufflet et Cordier by InVivo), TERACT (jardinerie et distribution alimentaire) et une entité transverse destinée à l’innovation - InVivo Digital Factory.
 Bioline by InVivo rassemble les activités semences, agrofourniture et agro-écologie.
-TERACT comprend les magasins Gamm Vert, Jardiland, Delbard &amp; associés, Jardineries du Terroir, Frais d'Ici, Bio&amp;Co, So France[17] et les boulangeries Louise.
+TERACT comprend les magasins Gamm Vert, Jardiland, Delbard &amp; associés, Jardineries du Terroir, Frais d'Ici, Bio&amp;Co, So France et les boulangeries Louise.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Activité de lobbying</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">InVivo Group déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 75 000 euros sur l'année 2018[18].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">InVivo Group déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 75 000 euros sur l'année 2018.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la journaliste Anne-Laure Chouin, la taille importante du groupe (5 milliards d'euros de chiffre d'affaires en 2018) en fait avec ses nombreuses filiales un équivalent de multinationale, dans lequel les coopérateurs ne profitent plus des intérêts d'une coopérative agricole[19].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la journaliste Anne-Laure Chouin, la taille importante du groupe (5 milliards d'euros de chiffre d'affaires en 2018) en fait avec ses nombreuses filiales un équivalent de multinationale, dans lequel les coopérateurs ne profitent plus des intérêts d'une coopérative agricole.
 </t>
         </is>
       </c>
